--- a/Transfer application form.xlsx
+++ b/Transfer application form.xlsx
@@ -1550,9 +1550,6 @@
     <t>Hinjewadi, Pune</t>
   </si>
   <si>
-    <t>nehaparashar632gmail.com</t>
-  </si>
-  <si>
     <t>Agra, Uttar Pradesh</t>
   </si>
   <si>
@@ -1602,6 +1599,9 @@
   </si>
   <si>
     <t>CITI Bank and 5299574709</t>
+  </si>
+  <si>
+    <t>nehaparashar63@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -8706,7 +8706,7 @@
   <dimension ref="A1:AO77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D21"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -8899,19 +8899,19 @@
         <v>161</v>
       </c>
       <c r="B7" s="418" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C7" s="430" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="418" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E7" s="430" t="s">
         <v>160</v>
       </c>
       <c r="F7" s="414" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="G7" s="144"/>
       <c r="H7" s="141"/>
@@ -8942,7 +8942,7 @@
         <v>175</v>
       </c>
       <c r="D8" s="418" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E8" s="430" t="s">
         <v>162</v>
@@ -9212,7 +9212,7 @@
         <v>74</v>
       </c>
       <c r="B18" s="418" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C18" s="418"/>
       <c r="D18" s="418" t="s">
@@ -9228,7 +9228,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="420" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:41" s="165" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9236,7 +9236,7 @@
         <v>75</v>
       </c>
       <c r="B19" s="421" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C19" s="418"/>
       <c r="D19" s="418" t="s">
@@ -9252,7 +9252,7 @@
         <v>48</v>
       </c>
       <c r="H19" s="420" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9271,7 +9271,7 @@
         <v>469</v>
       </c>
       <c r="B21" s="466" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C21" s="467"/>
       <c r="D21" s="468"/>
@@ -9335,22 +9335,22 @@
         <v>261</v>
       </c>
       <c r="B25" s="418" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C25" s="433" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D25" s="433" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E25" s="434" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F25" s="434" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G25" s="434" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H25" s="432"/>
     </row>
@@ -9359,22 +9359,22 @@
         <v>262</v>
       </c>
       <c r="B26" s="418" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C26" s="433" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D26" s="433" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E26" s="434" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F26" s="434" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G26" s="434" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H26" s="432"/>
     </row>
@@ -9395,13 +9395,13 @@
         <v>264</v>
       </c>
       <c r="B28" s="418" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C28" s="433" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D28" s="433" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E28" s="434"/>
       <c r="F28" s="434"/>
@@ -9413,13 +9413,13 @@
         <v>265</v>
       </c>
       <c r="B29" s="418" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C29" s="433" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D29" s="433" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E29" s="434"/>
       <c r="F29" s="434"/>
@@ -9431,13 +9431,13 @@
         <v>64</v>
       </c>
       <c r="B30" s="433" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C30" s="433" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D30" s="433" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E30" s="434"/>
       <c r="F30" s="434"/>
@@ -9529,13 +9529,13 @@
         <v>441</v>
       </c>
       <c r="B36" s="418" t="s">
+        <v>487</v>
+      </c>
+      <c r="C36" s="418" t="s">
         <v>488</v>
       </c>
-      <c r="C36" s="418" t="s">
+      <c r="D36" s="418" t="s">
         <v>489</v>
-      </c>
-      <c r="D36" s="418" t="s">
-        <v>490</v>
       </c>
       <c r="E36" s="418">
         <v>50</v>
@@ -9551,13 +9551,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="418" t="s">
+        <v>487</v>
+      </c>
+      <c r="C37" s="418" t="s">
         <v>488</v>
       </c>
-      <c r="C37" s="418" t="s">
+      <c r="D37" s="418" t="s">
         <v>489</v>
-      </c>
-      <c r="D37" s="418" t="s">
-        <v>490</v>
       </c>
       <c r="E37" s="418">
         <v>50</v>
@@ -9573,13 +9573,13 @@
         <v>450</v>
       </c>
       <c r="B38" s="418" t="s">
+        <v>487</v>
+      </c>
+      <c r="C38" s="418" t="s">
         <v>488</v>
       </c>
-      <c r="C38" s="418" t="s">
+      <c r="D38" s="418" t="s">
         <v>489</v>
-      </c>
-      <c r="D38" s="418" t="s">
-        <v>490</v>
       </c>
       <c r="E38" s="418">
         <v>50</v>
@@ -9595,13 +9595,13 @@
         <v>60</v>
       </c>
       <c r="B39" s="418" t="s">
+        <v>487</v>
+      </c>
+      <c r="C39" s="418" t="s">
         <v>488</v>
       </c>
-      <c r="C39" s="418" t="s">
+      <c r="D39" s="418" t="s">
         <v>489</v>
-      </c>
-      <c r="D39" s="418" t="s">
-        <v>490</v>
       </c>
       <c r="E39" s="418">
         <v>50</v>
@@ -9617,13 +9617,13 @@
         <v>182</v>
       </c>
       <c r="B40" s="418" t="s">
+        <v>487</v>
+      </c>
+      <c r="C40" s="418" t="s">
         <v>488</v>
       </c>
-      <c r="C40" s="418" t="s">
+      <c r="D40" s="418" t="s">
         <v>489</v>
-      </c>
-      <c r="D40" s="418" t="s">
-        <v>490</v>
       </c>
       <c r="E40" s="418">
         <v>50</v>
@@ -10070,8 +10070,11 @@
       <formula1>$N$4:$N$13</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.23" top="0.17" bottom="0.17" header="0.18" footer="0.4"/>
-  <pageSetup scale="46" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="46" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Bold"&amp;D - Mumbai&amp;C&amp;"Arial,Bold"&amp;F&amp;R&amp;"Arial,Bold"&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -10381,7 +10384,7 @@
       </c>
       <c r="B33" s="30" t="str">
         <f>MASTERSHEET!F7</f>
-        <v>nehaparashar632gmail.com</v>
+        <v>nehaparashar63@gmail.com</v>
       </c>
       <c r="C33" s="21"/>
     </row>
@@ -11988,7 +11991,7 @@
         <v>Sanjeev Parashar</v>
       </c>
       <c r="E17" s="416" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F17" s="266">
         <f>+MASTERSHEET!E36</f>
@@ -12031,7 +12034,7 @@
         <v>Sanjeev Parashar</v>
       </c>
       <c r="E20" s="266" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F20" s="266">
         <f>+MASTERSHEET!E36</f>
@@ -13545,14 +13548,14 @@
         <v>1</v>
       </c>
       <c r="C57" s="359" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D57" s="602">
         <v>25020</v>
       </c>
       <c r="E57" s="602"/>
       <c r="F57" s="603" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G57" s="604"/>
     </row>
